--- a/StructureDefinition-SzEpisodeOfCare.xlsx
+++ b/StructureDefinition-SzEpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEpisodeOfCare.xlsx
+++ b/StructureDefinition-SzEpisodeOfCare.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="242">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -590,13 +590,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the episode of care.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzEpisodeOfCareTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1133,7 +1127,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="38.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.65234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3207,13 +3201,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3246,21 +3238,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3286,10 +3278,10 @@
         <v>157</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3340,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3366,10 +3358,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3475,10 +3467,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3586,10 +3578,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3699,10 +3691,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3725,13 +3717,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3782,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3797,21 +3789,21 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3837,10 +3829,10 @@
         <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3870,10 +3862,10 @@
         <v>108</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -3891,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3917,10 +3909,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3943,13 +3935,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4000,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4026,10 +4018,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4052,13 +4044,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4109,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -4124,21 +4116,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4161,13 +4153,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4218,7 +4210,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4233,7 +4225,7 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4244,10 +4236,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4273,10 +4265,10 @@
         <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4327,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4342,21 +4334,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4379,13 +4371,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4436,7 +4428,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4451,7 +4443,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4462,10 +4454,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4488,13 +4480,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4545,7 +4537,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4560,7 +4552,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -4571,14 +4563,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4597,13 +4589,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4654,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4669,7 +4661,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -4680,10 +4672,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4706,16 +4698,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4765,7 +4757,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-SzEpisodeOfCare.xlsx
+++ b/StructureDefinition-SzEpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEpisodeOfCare.xlsx
+++ b/StructureDefinition-SzEpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
